--- a/data/trans_orig/CoTrAQ-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>59143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46404</v>
+        <v>45727</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75916</v>
+        <v>73142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2182512989223642</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1712385715972178</v>
+        <v>0.1687403461754569</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2801437214595838</v>
+        <v>0.2699078048859426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -763,19 +763,19 @@
         <v>45354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34043</v>
+        <v>33750</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59887</v>
+        <v>59880</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2117402468981788</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1589338760277008</v>
+        <v>0.1575666760891115</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2795888206137069</v>
+        <v>0.2795592790162307</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -784,19 +784,19 @@
         <v>104497</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88369</v>
+        <v>87519</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124003</v>
+        <v>124765</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2153768508669891</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1821359589413354</v>
+        <v>0.1803830905219912</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2555796723724392</v>
+        <v>0.2571504532388155</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>46597</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35768</v>
+        <v>34048</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60843</v>
+        <v>60050</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1719524872101427</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1319927012785857</v>
+        <v>0.1256422594312054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2245213141538652</v>
+        <v>0.2215962534174805</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>44</v>
@@ -834,19 +834,19 @@
         <v>46737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35189</v>
+        <v>35114</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59840</v>
+        <v>60320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2181980757522943</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1642843732462493</v>
+        <v>0.1639337239992488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2793734212801881</v>
+        <v>0.2816139950814742</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -855,19 +855,19 @@
         <v>93334</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76984</v>
+        <v>77764</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109573</v>
+        <v>112661</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1923686260400725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1586696308736064</v>
+        <v>0.160277407354996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2258381974777826</v>
+        <v>0.2322025031562863</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>165247</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>150294</v>
+        <v>148616</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>183496</v>
+        <v>182134</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6097962138674931</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5546134223474622</v>
+        <v>0.5484223366172077</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6771352524195364</v>
+        <v>0.6721092579247498</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>112</v>
@@ -905,19 +905,19 @@
         <v>122104</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>105916</v>
+        <v>106518</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>135617</v>
+        <v>137437</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.570061677349527</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4944832143652478</v>
+        <v>0.4972923299232204</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6331485036112946</v>
+        <v>0.6416463170360077</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>266</v>
@@ -926,19 +926,19 @@
         <v>287352</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>265643</v>
+        <v>263503</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>307845</v>
+        <v>309226</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5922545230929384</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5475105474728815</v>
+        <v>0.5431000454754261</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6344933024925884</v>
+        <v>0.6373381035924335</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>50754</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38352</v>
+        <v>37842</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66327</v>
+        <v>66035</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1363484514486441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1030332303780639</v>
+        <v>0.1016609573524148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1781872841993249</v>
+        <v>0.1774024379652859</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -1051,19 +1051,19 @@
         <v>50274</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38096</v>
+        <v>37782</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64771</v>
+        <v>64342</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2076116448279176</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1573199166118264</v>
+        <v>0.1560240234538228</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2674749335358431</v>
+        <v>0.2657037682954502</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>94</v>
@@ -1072,19 +1072,19 @@
         <v>101028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84921</v>
+        <v>83411</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>120925</v>
+        <v>121798</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1644361892908308</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1382207131548205</v>
+        <v>0.1357624705958872</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1968204960156799</v>
+        <v>0.1982429394493491</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>64379</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>51138</v>
+        <v>49893</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>79957</v>
+        <v>80441</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1729520450387146</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1373817017940696</v>
+        <v>0.1340355622672141</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2148041596921328</v>
+        <v>0.2161043055911216</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>48</v>
@@ -1122,19 +1122,19 @@
         <v>50368</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39627</v>
+        <v>39232</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>66826</v>
+        <v>64806</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2079972289201978</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1636418717702399</v>
+        <v>0.1620098806532338</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.27596211243995</v>
+        <v>0.2676227214326772</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>110</v>
@@ -1143,19 +1143,19 @@
         <v>114746</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>97350</v>
+        <v>96188</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>138143</v>
+        <v>133736</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1867647846988014</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1584496676831711</v>
+        <v>0.156558974653404</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2248463826714084</v>
+        <v>0.2176727424928512</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>257102</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>238329</v>
+        <v>238577</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>275322</v>
+        <v>275932</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6906995035126413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6402674364793174</v>
+        <v>0.6409339331194163</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7396489751949341</v>
+        <v>0.741285687715968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -1193,19 +1193,19 @@
         <v>141514</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>124728</v>
+        <v>125815</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>157554</v>
+        <v>157992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5843911262518845</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5150720934866649</v>
+        <v>0.5195626963848169</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6506285822277394</v>
+        <v>0.6524394869058531</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>376</v>
@@ -1214,19 +1214,19 @@
         <v>398616</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>372978</v>
+        <v>377240</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>421701</v>
+        <v>424493</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6487990260103678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6070697764823862</v>
+        <v>0.6140067328776309</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6863737042163874</v>
+        <v>0.6909175252024047</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>49320</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36558</v>
+        <v>37497</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63558</v>
+        <v>64465</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1121266021019688</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08311238762348873</v>
+        <v>0.08524840550641165</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1444962380646966</v>
+        <v>0.1465582922751784</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -1339,19 +1339,19 @@
         <v>35696</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24980</v>
+        <v>26259</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48804</v>
+        <v>50029</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1334357776529916</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09337603571123852</v>
+        <v>0.09815713159496386</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1824331569592798</v>
+        <v>0.187013989794777</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -1360,19 +1360,19 @@
         <v>85016</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66511</v>
+        <v>67722</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>104375</v>
+        <v>105133</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1201853489241689</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09402466696565753</v>
+        <v>0.09573623629118662</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1475528946065891</v>
+        <v>0.1486234023707503</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>67295</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52837</v>
+        <v>52454</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84074</v>
+        <v>83843</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.152991651423851</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1201233446075491</v>
+        <v>0.1192522293733238</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1911391315332532</v>
+        <v>0.1906133420838166</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1410,19 +1410,19 @@
         <v>36005</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25345</v>
+        <v>25566</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48568</v>
+        <v>47669</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1345905952674533</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09474345451397019</v>
+        <v>0.09556753727481694</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1815506384388119</v>
+        <v>0.1781915731835881</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -1431,19 +1431,19 @@
         <v>103300</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86100</v>
+        <v>85256</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>126624</v>
+        <v>123228</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1460327030370197</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1217178321487561</v>
+        <v>0.1205250058913889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1790058944603124</v>
+        <v>0.1742048271324048</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>323244</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>305176</v>
+        <v>303576</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343757</v>
+        <v>340577</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7348817464741801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6938033469296775</v>
+        <v>0.6901665888778008</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7815171964379258</v>
+        <v>0.7742867009353556</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>185</v>
@@ -1481,19 +1481,19 @@
         <v>195815</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>179614</v>
+        <v>178677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>209683</v>
+        <v>208586</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7319736270795552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6714108089629937</v>
+        <v>0.6679071176760289</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7838119277169096</v>
+        <v>0.7797107444103971</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>493</v>
@@ -1502,19 +1502,19 @@
         <v>519060</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>493745</v>
+        <v>492189</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>541594</v>
+        <v>544565</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7337819480388114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6979949684541777</v>
+        <v>0.6957958290825862</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.765638360413928</v>
+        <v>0.7698378137210254</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>23817</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15765</v>
+        <v>15319</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35196</v>
+        <v>34408</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08253764518109025</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05463618190427134</v>
+        <v>0.05308930845033552</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1219739395553574</v>
+        <v>0.1192420117238734</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1627,19 +1627,19 @@
         <v>22243</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14073</v>
+        <v>13591</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32835</v>
+        <v>33346</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1264353031303561</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07999376988118576</v>
+        <v>0.07725655317949252</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1866415055180084</v>
+        <v>0.1895486656471177</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -1648,19 +1648,19 @@
         <v>46060</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34111</v>
+        <v>33627</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62284</v>
+        <v>63295</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09916410842512016</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0734392934081631</v>
+        <v>0.07239657603527368</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.13409531534986</v>
+        <v>0.1362709779749381</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>36909</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27040</v>
+        <v>26308</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51710</v>
+        <v>51711</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1279110291200367</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09370892173991878</v>
+        <v>0.09117019761446704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1792054586993956</v>
+        <v>0.1792088042436216</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -1698,19 +1698,19 @@
         <v>24916</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16646</v>
+        <v>17335</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36898</v>
+        <v>37338</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1416283582527538</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09462154541460152</v>
+        <v>0.09853994383496055</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2097407258106831</v>
+        <v>0.2122394791238834</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -1719,19 +1719,19 @@
         <v>61825</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47023</v>
+        <v>47894</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79204</v>
+        <v>79847</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1331065379304378</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1012380360632801</v>
+        <v>0.1031144511135057</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1705222143736559</v>
+        <v>0.1719073124388273</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>227828</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>211940</v>
+        <v>212898</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>241397</v>
+        <v>241835</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.789551325698873</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7344915256148676</v>
+        <v>0.7378111043816566</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8365764024186745</v>
+        <v>0.8380931463728318</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>118</v>
@@ -1769,19 +1769,19 @@
         <v>128764</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>116345</v>
+        <v>114976</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>140377</v>
+        <v>140707</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7319363386168901</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6613428406132403</v>
+        <v>0.6535570750593198</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7979457291061136</v>
+        <v>0.7998203945726707</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>327</v>
@@ -1790,19 +1790,19 @@
         <v>356593</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>336001</v>
+        <v>336129</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>375662</v>
+        <v>374904</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7677293536444421</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7233955159930548</v>
+        <v>0.7236697346067924</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8087842026963251</v>
+        <v>0.8071505009129446</v>
       </c>
     </row>
     <row r="19">
@@ -1894,19 +1894,19 @@
         <v>183033</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>159399</v>
+        <v>159225</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>210367</v>
+        <v>212355</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.133441804170215</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1162110731863904</v>
+        <v>0.1160838393591114</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1533692428958954</v>
+        <v>0.1548191248237296</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>137</v>
@@ -1915,19 +1915,19 @@
         <v>153567</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>128929</v>
+        <v>130833</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>178113</v>
+        <v>180721</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1706699721951749</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1432873827174502</v>
+        <v>0.1454042490099235</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1979488521970956</v>
+        <v>0.2008473263726914</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>307</v>
@@ -1936,19 +1936,19 @@
         <v>336601</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>302497</v>
+        <v>306087</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>375539</v>
+        <v>375857</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1481891770335363</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1331749453691798</v>
+        <v>0.1347553669655301</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1653316463039468</v>
+        <v>0.1654719451235456</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>215180</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>187032</v>
+        <v>186136</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>244927</v>
+        <v>242892</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1568782298804969</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1363568663029451</v>
+        <v>0.1357041041443369</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1785653843557001</v>
+        <v>0.1770817960895114</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>149</v>
@@ -1986,19 +1986,19 @@
         <v>158026</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>138085</v>
+        <v>136294</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>182425</v>
+        <v>181172</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1756248440240339</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1534636092528703</v>
+        <v>0.1514732103817483</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2027412704974838</v>
+        <v>0.2013485572276741</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>351</v>
@@ -2007,19 +2007,19 @@
         <v>373205</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>337176</v>
+        <v>334215</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>411300</v>
+        <v>408665</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1643044161090053</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1484424846537478</v>
+        <v>0.1471388425539272</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1810755904417612</v>
+        <v>0.1799157399734604</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>973422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>937764</v>
+        <v>939752</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1007942</v>
+        <v>1006461</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7096799659492881</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6836832174107351</v>
+        <v>0.6851323812358691</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7348468487271171</v>
+        <v>0.7337676185540106</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>544</v>
@@ -2057,19 +2057,19 @@
         <v>588198</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>558642</v>
+        <v>558505</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>617128</v>
+        <v>615140</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6537051837807912</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.62085721598238</v>
+        <v>0.620705683077413</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6858568570254209</v>
+        <v>0.6836481164877974</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1462</v>
@@ -2078,19 +2078,19 @@
         <v>1561620</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1512056</v>
+        <v>1509163</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1606545</v>
+        <v>1605809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6875064068574583</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6656857933474187</v>
+        <v>0.6644121854634324</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7072847948941038</v>
+        <v>0.7069608962565678</v>
       </c>
     </row>
     <row r="23">
@@ -2422,19 +2422,19 @@
         <v>95778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79926</v>
+        <v>80290</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>114373</v>
+        <v>112946</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3262445276342302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2722485578354464</v>
+        <v>0.273487658529925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3895824135165286</v>
+        <v>0.3847206638566995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -2443,19 +2443,19 @@
         <v>105475</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89794</v>
+        <v>89955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123472</v>
+        <v>122038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3804602043966296</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3238948277904976</v>
+        <v>0.3244770831900474</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4453756117695198</v>
+        <v>0.4402022048499807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>190</v>
@@ -2464,19 +2464,19 @@
         <v>201254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177810</v>
+        <v>179254</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>225470</v>
+        <v>227341</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3525760296357383</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3115045755342096</v>
+        <v>0.3140352430076631</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3950013544650987</v>
+        <v>0.3982792690223313</v>
       </c>
     </row>
     <row r="5">
@@ -2493,19 +2493,19 @@
         <v>70165</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56192</v>
+        <v>55030</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86307</v>
+        <v>84722</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2389995061089263</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1914036730794463</v>
+        <v>0.1874467894113036</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2939836152173866</v>
+        <v>0.2885849258543136</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -2514,19 +2514,19 @@
         <v>58753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45635</v>
+        <v>46547</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73082</v>
+        <v>74228</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2119293957160001</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1646092363167731</v>
+        <v>0.1678996000910246</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2636151772812425</v>
+        <v>0.2677493350557737</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -2535,19 +2535,19 @@
         <v>128918</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>109791</v>
+        <v>108505</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>151892</v>
+        <v>152003</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2258520788598629</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1923436576794947</v>
+        <v>0.1900901591297635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2661000451290915</v>
+        <v>0.2662941599946291</v>
       </c>
     </row>
     <row r="6">
@@ -2564,19 +2564,19 @@
         <v>127635</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107382</v>
+        <v>112078</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>145200</v>
+        <v>145339</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4347559662568435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3657700275296275</v>
+        <v>0.3817660383948436</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4945874603420288</v>
+        <v>0.4950596847500718</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -2585,19 +2585,19 @@
         <v>113002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>97035</v>
+        <v>98220</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>129520</v>
+        <v>129657</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4076103998873704</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3500160949478344</v>
+        <v>0.354288047138427</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4671927286379715</v>
+        <v>0.4676844659044139</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>229</v>
@@ -2606,19 +2606,19 @@
         <v>240637</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>216462</v>
+        <v>217979</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>264306</v>
+        <v>265240</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4215718915043987</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3792191725777804</v>
+        <v>0.3818776381840531</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4630367645982315</v>
+        <v>0.4646736317906184</v>
       </c>
     </row>
     <row r="7">
@@ -2710,19 +2710,19 @@
         <v>102833</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>85496</v>
+        <v>86555</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>121071</v>
+        <v>122347</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2633533592312653</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2189540104311347</v>
+        <v>0.2216663804885377</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3100627072251623</v>
+        <v>0.3133306913581824</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>82</v>
@@ -2731,19 +2731,19 @@
         <v>83607</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>69115</v>
+        <v>68939</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98847</v>
+        <v>99260</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3095955097893126</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2559298804702843</v>
+        <v>0.2552802137431472</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3660278701676355</v>
+        <v>0.3675586860187018</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>177</v>
@@ -2752,19 +2752,19 @@
         <v>186440</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>163778</v>
+        <v>161668</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>210773</v>
+        <v>208786</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2822591979957014</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2479502966514436</v>
+        <v>0.2447560221235799</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3190975811542884</v>
+        <v>0.3160905498872144</v>
       </c>
     </row>
     <row r="9">
@@ -2781,19 +2781,19 @@
         <v>100028</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>84905</v>
+        <v>85099</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>118612</v>
+        <v>118055</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2561717773412185</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2174401661379842</v>
+        <v>0.2179380750204516</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3037634572666275</v>
+        <v>0.3023370966704347</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>55</v>
@@ -2802,19 +2802,19 @@
         <v>55539</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>43898</v>
+        <v>43071</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>70365</v>
+        <v>69615</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2056609045683769</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.162551469557393</v>
+        <v>0.1594925063035042</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2605602812494068</v>
+        <v>0.2577822492851816</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>152</v>
@@ -2823,19 +2823,19 @@
         <v>155568</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>136684</v>
+        <v>135227</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>181633</v>
+        <v>177466</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2355206959150735</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2069316403101368</v>
+        <v>0.2047258277718803</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2749821120719737</v>
+        <v>0.2686738918381142</v>
       </c>
     </row>
     <row r="10">
@@ -2852,19 +2852,19 @@
         <v>187613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>169717</v>
+        <v>169113</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208043</v>
+        <v>208476</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4804748634275162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4346431735202516</v>
+        <v>0.4330977939384992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5327966679964421</v>
+        <v>0.5339047626876517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -2873,19 +2873,19 @@
         <v>130906</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>115090</v>
+        <v>115132</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147258</v>
+        <v>147826</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4847435856423105</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4261769379706192</v>
+        <v>0.4263322495637401</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5452935959892823</v>
+        <v>0.5473960924623019</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>305</v>
@@ -2894,19 +2894,19 @@
         <v>318519</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>293710</v>
+        <v>294396</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>345757</v>
+        <v>345958</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4822201060892251</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4446597925049969</v>
+        <v>0.4456992265610931</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5234568165878698</v>
+        <v>0.5237607764664491</v>
       </c>
     </row>
     <row r="11">
@@ -2998,19 +2998,19 @@
         <v>85546</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68217</v>
+        <v>68783</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>101615</v>
+        <v>102198</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1875243949462264</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1495375186451309</v>
+        <v>0.1507785618264828</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2227481640624708</v>
+        <v>0.2240262660973718</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>70</v>
@@ -3019,19 +3019,19 @@
         <v>69176</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55379</v>
+        <v>55023</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>84171</v>
+        <v>84089</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2380176144724632</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1905453665209255</v>
+        <v>0.1893199037050336</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2896118556616095</v>
+        <v>0.2893300351984047</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>148</v>
@@ -3040,19 +3040,19 @@
         <v>154723</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>132339</v>
+        <v>131968</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>177130</v>
+        <v>176007</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.207174422707605</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1772028558778527</v>
+        <v>0.1767051824545887</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2371773622956425</v>
+        <v>0.235673763310713</v>
       </c>
     </row>
     <row r="13">
@@ -3069,19 +3069,19 @@
         <v>95632</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78274</v>
+        <v>78422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111764</v>
+        <v>113851</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2096329788184043</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1715825997096687</v>
+        <v>0.1719080115431819</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2449958024134118</v>
+        <v>0.2495698406776395</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -3090,19 +3090,19 @@
         <v>65819</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52752</v>
+        <v>51791</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83684</v>
+        <v>79709</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2264654328877062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1815063568903001</v>
+        <v>0.1781990633698861</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2879355986192412</v>
+        <v>0.274259166362484</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -3111,19 +3111,19 @@
         <v>161451</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140116</v>
+        <v>137792</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186626</v>
+        <v>183684</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2161835254632276</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1876160806086625</v>
+        <v>0.1845041034604767</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2498933068539051</v>
+        <v>0.2459539412906725</v>
       </c>
     </row>
     <row r="14">
@@ -3140,19 +3140,19 @@
         <v>275010</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>254452</v>
+        <v>254502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>297400</v>
+        <v>295166</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6028426262353692</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5577781258489397</v>
+        <v>0.5578880276909364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6519242696029087</v>
+        <v>0.6470267793311849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -3161,19 +3161,19 @@
         <v>155640</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>136888</v>
+        <v>139550</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>172277</v>
+        <v>173728</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5355169526398306</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.470994806063759</v>
+        <v>0.4801554267741609</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5927594254683555</v>
+        <v>0.5977518684911857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>412</v>
@@ -3182,19 +3182,19 @@
         <v>430650</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>402274</v>
+        <v>403326</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>458325</v>
+        <v>457495</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5766420518291674</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5386462435746303</v>
+        <v>0.5400548168609293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6136982934720446</v>
+        <v>0.6125870117553391</v>
       </c>
     </row>
     <row r="15">
@@ -3286,19 +3286,19 @@
         <v>59437</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46788</v>
+        <v>45817</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75273</v>
+        <v>74397</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2160190898275182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1700461131636053</v>
+        <v>0.1665165257737827</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2735709896501251</v>
+        <v>0.2703891197713276</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -3307,19 +3307,19 @@
         <v>39430</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28381</v>
+        <v>29614</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51664</v>
+        <v>53166</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2031805729305896</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1462441425572303</v>
+        <v>0.1526014731676152</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2662252832746052</v>
+        <v>0.273960345812128</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>91</v>
@@ -3328,19 +3328,19 @@
         <v>98867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82172</v>
+        <v>81470</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>118949</v>
+        <v>119372</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2107091669796461</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1751276092673344</v>
+        <v>0.1736316303714269</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2535088423130842</v>
+        <v>0.2544092509458413</v>
       </c>
     </row>
     <row r="17">
@@ -3357,19 +3357,19 @@
         <v>37346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26815</v>
+        <v>26743</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51027</v>
+        <v>50280</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1357311402396467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09745470709094967</v>
+        <v>0.09719489050290134</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1854520554333137</v>
+        <v>0.182738794871479</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -3378,19 +3378,19 @@
         <v>39753</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28462</v>
+        <v>29725</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51505</v>
+        <v>53321</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.204846048153319</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1466621795774944</v>
+        <v>0.1531706116728928</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2654031883993654</v>
+        <v>0.2747602430087409</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -3399,19 +3399,19 @@
         <v>77099</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>61576</v>
+        <v>61785</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>92845</v>
+        <v>94180</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1643165938092238</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1312323335974812</v>
+        <v>0.1316783787591351</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1978752986120679</v>
+        <v>0.2007189813209896</v>
       </c>
     </row>
     <row r="18">
@@ -3428,19 +3428,19 @@
         <v>178365</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>161998</v>
+        <v>161073</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>194537</v>
+        <v>194322</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6482497699328351</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5887629556622863</v>
+        <v>0.5854025190377263</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7070247588414316</v>
+        <v>0.7062443680647912</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>109</v>
@@ -3449,19 +3449,19 @@
         <v>114880</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>99807</v>
+        <v>99798</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128565</v>
+        <v>127879</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5919733789160914</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5143017968385023</v>
+        <v>0.514253701725333</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6624928229381726</v>
+        <v>0.658954725120143</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>270</v>
@@ -3470,19 +3470,19 @@
         <v>293245</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>269751</v>
+        <v>271978</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>315117</v>
+        <v>312742</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.62497423921113</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.574902759658565</v>
+        <v>0.5796485644587748</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6715876607405187</v>
+        <v>0.6665263084348065</v>
       </c>
     </row>
     <row r="19">
@@ -3574,19 +3574,19 @@
         <v>343595</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>307747</v>
+        <v>311295</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>377930</v>
+        <v>377545</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2427563368096962</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2174292012423319</v>
+        <v>0.2199361790532236</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2670150240132039</v>
+        <v>0.2667426682929112</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>293</v>
@@ -3595,19 +3595,19 @@
         <v>297689</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2884629814004714</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>606</v>
@@ -3616,19 +3616,19 @@
         <v>641283</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>597019</v>
+        <v>600639</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>683218</v>
+        <v>688816</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.262029427323299</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2439428498337896</v>
+        <v>0.2454221112000954</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2791640495709489</v>
+        <v>0.2814513653816558</v>
       </c>
     </row>
     <row r="21">
@@ -3645,19 +3645,19 @@
         <v>303172</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>274681</v>
+        <v>272970</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>337788</v>
+        <v>336980</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2141967584001575</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1940672950035738</v>
+        <v>0.1928584049483359</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2386535763320342</v>
+        <v>0.238082442115441</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>217</v>
@@ -3666,19 +3666,19 @@
         <v>219865</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>195482</v>
+        <v>193616</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>248411</v>
+        <v>248014</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2130507774776809</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1894237968990433</v>
+        <v>0.1876158275493797</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2407128147558331</v>
+        <v>0.2403274285245648</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>502</v>
@@ -3687,19 +3687,19 @@
         <v>523037</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>481372</v>
+        <v>477955</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>563439</v>
+        <v>563654</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2137135333845498</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1966894464652013</v>
+        <v>0.1952932396797627</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2302218521657313</v>
+        <v>0.230309805807307</v>
       </c>
     </row>
     <row r="22">
@@ -3716,19 +3716,19 @@
         <v>768623</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>732266</v>
+        <v>727157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>809491</v>
+        <v>805448</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5430469047901464</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5173596324798546</v>
+        <v>0.5137504163054384</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5719204735359704</v>
+        <v>0.5690645182801477</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>498</v>
@@ -3737,19 +3737,19 @@
         <v>514429</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4984862411218476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1216</v>
@@ -3758,19 +3758,19 @@
         <v>1283052</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1236845</v>
+        <v>1235037</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1331850</v>
+        <v>1331237</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5242570392921512</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5053769296799143</v>
+        <v>0.5046378945809717</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5441958461600352</v>
+        <v>0.5439453366760414</v>
       </c>
     </row>
     <row r="23">
